--- a/HRM/Testdata/ab.xlsx
+++ b/HRM/Testdata/ab.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niranjan Hiremath\eclipse-workspace-java\HRM\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niranjan Hiremath\git\HRM\HRM\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0F01DC-C53B-406B-8019-D5DDEC084CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C853779-2CEB-4E47-B2A7-EF82B4BD1919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>admin@gmail.com</t>
   </si>
   <si>
     <t>123@Admin</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Raj0@gmail.com</t>
+  </si>
+  <si>
+    <t>Raja</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Rao</t>
+  </si>
+  <si>
+    <t>Raj@1234</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Part Time</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Employee</t>
   </si>
 </sst>
 </file>
@@ -75,9 +117,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -359,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,10 +428,98 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>36882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>8660782521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{55F4C7F3-B6D3-4B2B-9B5F-E6A946D269FA}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{44962110-397C-4EC0-A03D-2B1ABA345D2C}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{6FDB6575-984C-405D-BA0C-90B2B1DDE8E0}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{F20CA861-3083-4A09-B8A8-E4E041A39315}"/>
+    <hyperlink ref="A10" r:id="rId5" xr:uid="{27CC2DEC-9F86-4549-A887-A3A7D1CD95BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
